--- a/public/Reservations.xlsx
+++ b/public/Reservations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\lakbay_laravel\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA109696-D1F6-4805-BDC1-098ED3FA42F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED6EC02-9B94-4DBB-9B85-CF05EE688D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4E4F2E6C-6624-47A3-9265-32EE952AF4A7}"/>
+    <workbookView xWindow="2880" yWindow="2880" windowWidth="19200" windowHeight="11170" xr2:uid="{4E4F2E6C-6624-47A3-9265-32EE952AF4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>${rs_voucher}</t>
   </si>
   <si>
-    <t>${rs_daily_transport}</t>
-  </si>
-  <si>
     <t>${created_at}</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>${dr_name}</t>
+  </si>
+  <si>
+    <t>${rs_travel_type}</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -503,34 +503,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -538,31 +538,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
